--- a/docs/DataReopenUS.xlsx
+++ b/docs/DataReopenUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2764862-0F57-4564-B332-E9904C2667D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710BDF0C-DA26-42E4-9223-3CD5E2B6F4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA2A70FF-AB7A-46B8-91DB-5297C9CBF5AB}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30448995-0632-43CF-975C-35A195FE1C62}">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,8 +852,8 @@
       <c r="AL2" s="1">
         <v>43960</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
+      <c r="AM2" s="1">
+        <v>43990</v>
       </c>
       <c r="AN2" s="1">
         <v>43980</v>
